--- a/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/AAggregated C&A  Diff-in-DiffDAGVAR 2006-12-31 to 2008-09-30.xlsx
+++ b/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/AAggregated C&A  Diff-in-DiffDAGVAR 2006-12-31 to 2008-09-30.xlsx
@@ -31,16 +31,16 @@
     <t>LF Lag</t>
   </si>
   <si>
-    <t>-0.124</t>
-  </si>
-  <si>
-    <t>-0.019*</t>
-  </si>
-  <si>
-    <t>5.268</t>
-  </si>
-  <si>
-    <t>1.862***</t>
+    <t>-0.07</t>
+  </si>
+  <si>
+    <t>-0.025*</t>
+  </si>
+  <si>
+    <t>3.241</t>
+  </si>
+  <si>
+    <t>1.421***</t>
   </si>
 </sst>
 </file>
